--- a/Teaching/2017-2018/Instrumente Statistice web page/students/Tabel_Instrumente_Stat.xlsx
+++ b/Teaching/2017-2018/Instrumente Statistice web page/students/Tabel_Instrumente_Stat.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="6AEF2CF6734D38CFA15DF09A5A63ABD705514573" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{F9E50A76-E8E6-44D7-91F2-5F15132B45F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD8D79C2-9CD5-44D8-84DC-4E5C621CE3A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,115 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>BRÎNZĂ</t>
+      <t>CODREANU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D.V.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LAURA-IOANA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LOGHIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MARIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MILU</t>
     </r>
     <r>
       <rPr>
@@ -294,19 +402,275 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>MIHAI-ALEXANDRU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MORARU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ANDREEA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OPREA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ANA-MARIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PASCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A.M.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GHEORGHE-IOAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SAVU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MARIA-IRINA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BRINZA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>MODURA-BOGDAN</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BUCĂTARU</t>
+      <t>BUCATARU</t>
     </r>
     <r>
       <rPr>
@@ -353,13 +717,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>CATANA</t>
     </r>
     <r>
@@ -402,19 +759,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>LUIGI-IONUȚ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CĂLIN</t>
+      <t>LUIGI-IONUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CALIN</t>
     </r>
     <r>
       <rPr>
@@ -456,72 +806,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IONUȚ-VOLUS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CODREANU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D.V.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LAURA-IOANA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
+      <t>IONUT-VOLUS</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>DUMITRU</t>
     </r>
     <r>
@@ -564,72 +853,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ALEXANDRA-CĂTĂLINA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LOGHIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MARIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
+      <t>ALEXANDRA-CATALINA</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>MADAR</t>
     </r>
     <r>
@@ -672,127 +900,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>NICUȘOR-FLORIN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MILU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MIHAI-ALEXANDRU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MORARU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ANDREEA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NEACȘA</t>
+      <t>NICUSOR-FLORIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NEACSA</t>
     </r>
     <r>
       <rPr>
@@ -839,121 +952,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OPREA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ANA-MARIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PASCU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A.M.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>GHEORGHE-IOAN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>PETRACHE</t>
     </r>
     <r>
@@ -996,73 +994,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>MĂDĂLINA-STELUȚA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SAVU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MARIA-IRINA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SĂNDULESCU</t>
+      <t>MADALINA-STELUTA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SANDULESCU</t>
     </r>
     <r>
       <rPr>
@@ -1104,19 +1041,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ANDREI-CĂLIN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ȘERBAN</t>
+      <t>ANDREI-CALIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SERBAN</t>
     </r>
     <r>
       <rPr>
@@ -1519,12 +1449,12 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1585,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>403</v>
@@ -1596,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>403</v>
@@ -1607,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>403</v>
@@ -1618,7 +1548,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>403</v>
@@ -1629,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>403</v>
@@ -1640,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>403</v>
@@ -1651,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>403</v>
@@ -1662,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>403</v>
@@ -1673,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>403</v>
@@ -1684,7 +1614,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>403</v>
@@ -1695,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>403</v>
@@ -1706,7 +1636,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>403</v>
@@ -1717,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>403</v>
@@ -1728,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>403</v>
@@ -1739,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>403</v>
